--- a/biology/Biochimie/Lysergamide/Lysergamide.xlsx
+++ b/biology/Biochimie/Lysergamide/Lysergamide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un lysergamide est un amide dérivé de l'acide lysergique. Un lysergamide est aussi plus généralement un alcaloïde avec un noyau de type indole. Dans la nature, des lysergamides peuvent être synthétisés par des champignons de la famille des clavicipitacées.
  Portail de la chimie   Portail de la biochimie   Portail de la pharmacie                   </t>
